--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Il17c-Il17re.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Il17c-Il17re.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -83,9 +89,6 @@
   </si>
   <si>
     <t>Il17re</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.35750751225863</v>
+        <v>1.198357333333333</v>
       </c>
       <c r="H2">
-        <v>0.35750751225863</v>
+        <v>3.595072</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.5044631819412814</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.5044631819412814</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.07015656756842351</v>
+        <v>0.01191533333333333</v>
       </c>
       <c r="N2">
-        <v>0.07015656756842351</v>
+        <v>0.035746</v>
       </c>
       <c r="O2">
-        <v>0.4437260973346638</v>
+        <v>0.03575915937064839</v>
       </c>
       <c r="P2">
-        <v>0.4437260973346638</v>
+        <v>0.03575915937064839</v>
       </c>
       <c r="Q2">
-        <v>0.02508149993999157</v>
+        <v>0.01427882707911111</v>
       </c>
       <c r="R2">
-        <v>0.02508149993999157</v>
+        <v>0.128509443712</v>
       </c>
       <c r="S2">
-        <v>0.4437260973346638</v>
+        <v>0.01803917931966268</v>
       </c>
       <c r="T2">
-        <v>0.4437260973346638</v>
+        <v>0.01803917931966268</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,61 +581,495 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.35750751225863</v>
+        <v>1.198357333333333</v>
       </c>
       <c r="H3">
-        <v>0.35750751225863</v>
+        <v>3.595072</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.5044631819412814</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.5044631819412814</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.08795125613145351</v>
+        <v>0.154636</v>
       </c>
       <c r="N3">
-        <v>0.08795125613145351</v>
+        <v>0.463908</v>
       </c>
       <c r="O3">
-        <v>0.5562739026653361</v>
+        <v>0.4640787809914049</v>
       </c>
       <c r="P3">
-        <v>0.5562739026653361</v>
+        <v>0.4640787809914049</v>
       </c>
       <c r="Q3">
-        <v>0.03144323477957752</v>
+        <v>0.1853091845973334</v>
       </c>
       <c r="R3">
-        <v>0.03144323477957752</v>
+        <v>1.667782661376</v>
       </c>
       <c r="S3">
-        <v>0.5562739026653361</v>
+        <v>0.2341106585303551</v>
       </c>
       <c r="T3">
-        <v>0.5562739026653361</v>
+        <v>0.2341106585303551</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>1.198357333333333</v>
+      </c>
+      <c r="H4">
+        <v>3.595072</v>
+      </c>
+      <c r="I4">
+        <v>0.5044631819412814</v>
+      </c>
+      <c r="J4">
+        <v>0.5044631819412814</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0.1666593333333334</v>
+      </c>
+      <c r="N4">
+        <v>0.499978</v>
+      </c>
+      <c r="O4">
+        <v>0.5001620596379468</v>
+      </c>
+      <c r="P4">
+        <v>0.5001620596379468</v>
+      </c>
+      <c r="Q4">
+        <v>0.1997174342684445</v>
+      </c>
+      <c r="R4">
+        <v>1.797456908416</v>
+      </c>
+      <c r="S4">
+        <v>0.2523133440912636</v>
+      </c>
+      <c r="T4">
+        <v>0.2523133440912636</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.7359279999999999</v>
+      </c>
+      <c r="H5">
+        <v>2.207784</v>
+      </c>
+      <c r="I5">
+        <v>0.3097978960307471</v>
+      </c>
+      <c r="J5">
+        <v>0.309797896030747</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.01191533333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.035746</v>
+      </c>
+      <c r="O5">
+        <v>0.03575915937064839</v>
+      </c>
+      <c r="P5">
+        <v>0.03575915937064839</v>
+      </c>
+      <c r="Q5">
+        <v>0.008768827429333333</v>
+      </c>
+      <c r="R5">
+        <v>0.07891944686399999</v>
+      </c>
+      <c r="S5">
+        <v>0.01107811233685505</v>
+      </c>
+      <c r="T5">
+        <v>0.01107811233685504</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.7359279999999999</v>
+      </c>
+      <c r="H6">
+        <v>2.207784</v>
+      </c>
+      <c r="I6">
+        <v>0.3097978960307471</v>
+      </c>
+      <c r="J6">
+        <v>0.309797896030747</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.154636</v>
+      </c>
+      <c r="N6">
+        <v>0.463908</v>
+      </c>
+      <c r="O6">
+        <v>0.4640787809914049</v>
+      </c>
+      <c r="P6">
+        <v>0.4640787809914049</v>
+      </c>
+      <c r="Q6">
+        <v>0.113800962208</v>
+      </c>
+      <c r="R6">
+        <v>1.024208659872</v>
+      </c>
+      <c r="S6">
+        <v>0.1437706299436511</v>
+      </c>
+      <c r="T6">
+        <v>0.1437706299436511</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.7359279999999999</v>
+      </c>
+      <c r="H7">
+        <v>2.207784</v>
+      </c>
+      <c r="I7">
+        <v>0.3097978960307471</v>
+      </c>
+      <c r="J7">
+        <v>0.309797896030747</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.1666593333333334</v>
+      </c>
+      <c r="N7">
+        <v>0.499978</v>
+      </c>
+      <c r="O7">
+        <v>0.5001620596379468</v>
+      </c>
+      <c r="P7">
+        <v>0.5001620596379468</v>
+      </c>
+      <c r="Q7">
+        <v>0.1226492698613333</v>
+      </c>
+      <c r="R7">
+        <v>1.103843428752</v>
+      </c>
+      <c r="S7">
+        <v>0.154949153750241</v>
+      </c>
+      <c r="T7">
+        <v>0.1549491537502409</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.4412246666666667</v>
+      </c>
+      <c r="H8">
+        <v>1.323674</v>
+      </c>
+      <c r="I8">
+        <v>0.1857389220279715</v>
+      </c>
+      <c r="J8">
+        <v>0.1857389220279715</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.01191533333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.035746</v>
+      </c>
+      <c r="O8">
+        <v>0.03575915937064839</v>
+      </c>
+      <c r="P8">
+        <v>0.03575915937064839</v>
+      </c>
+      <c r="Q8">
+        <v>0.005257338978222222</v>
+      </c>
+      <c r="R8">
+        <v>0.047316050804</v>
+      </c>
+      <c r="S8">
+        <v>0.00664186771413067</v>
+      </c>
+      <c r="T8">
+        <v>0.006641867714130669</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.4412246666666667</v>
+      </c>
+      <c r="H9">
+        <v>1.323674</v>
+      </c>
+      <c r="I9">
+        <v>0.1857389220279715</v>
+      </c>
+      <c r="J9">
+        <v>0.1857389220279715</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.154636</v>
+      </c>
+      <c r="N9">
+        <v>0.463908</v>
+      </c>
+      <c r="O9">
+        <v>0.4640787809914049</v>
+      </c>
+      <c r="P9">
+        <v>0.4640787809914049</v>
+      </c>
+      <c r="Q9">
+        <v>0.06822921755466667</v>
+      </c>
+      <c r="R9">
+        <v>0.6140629579920001</v>
+      </c>
+      <c r="S9">
+        <v>0.08619749251739862</v>
+      </c>
+      <c r="T9">
+        <v>0.08619749251739862</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.4412246666666667</v>
+      </c>
+      <c r="H10">
+        <v>1.323674</v>
+      </c>
+      <c r="I10">
+        <v>0.1857389220279715</v>
+      </c>
+      <c r="J10">
+        <v>0.1857389220279715</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.1666593333333334</v>
+      </c>
+      <c r="N10">
+        <v>0.499978</v>
+      </c>
+      <c r="O10">
+        <v>0.5001620596379468</v>
+      </c>
+      <c r="P10">
+        <v>0.5001620596379468</v>
+      </c>
+      <c r="Q10">
+        <v>0.07353420879688889</v>
+      </c>
+      <c r="R10">
+        <v>0.661807879172</v>
+      </c>
+      <c r="S10">
+        <v>0.09289956179644225</v>
+      </c>
+      <c r="T10">
+        <v>0.09289956179644224</v>
       </c>
     </row>
   </sheetData>
